--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_268.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_268.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1306715063520871</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3333333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D']]</t>
+          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(55.151295, 60.155195)]</t>
+          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(33.431496, 38.307687)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>[('0:00:04.200000', '0:00:19.320000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:02:45.140000', '0:02:48.700000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.08359133126934984</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'C#:min', 'F#:min'], ['G', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2589285714285714</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G', 'B:min', 'E:min'], ['F', 'G', 'G']]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(11.14034, 18.686825), (19.371814, 23.760385)]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(43.59721, 48.78687), (7.525011, 11.774262)]</t>
+          <t>[('0:00:42.520000', '0:00:46.360000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+          <t>[('0:01:25.580000', '0:01:34.240000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_29</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1339285714285714</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'C']]</t>
-        </is>
+          <t>isophonics_93</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_223</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0794314381270903</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab', 'Db']]</t>
+          <t>[['F', 'Bb', 'C'], ['C', 'G', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(60.180884, 68.841927)]</t>
+          <t>[['D', 'G', 'A'], ['A', 'E', 'F#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(116.69, 119.66)]</t>
+          <t>[('0:00:33.930725', '0:00:38.818526'), ('0:00:03.059795', '0:00:10.455351')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>[('0:00:30.552222', '0:00:37.483378'), ('0:00:09.607823', '0:00:12.823786')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.14375</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'Bb'], ['F', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2153846153846154</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D', 'D/2', 'D/3'], ['A', 'D', 'D/2']]</t>
+          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(2.3, 5.06), (1.38, 4.14)]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(53.594164, 57.7109), (52.196388, 57.251357)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:02:04.300000', '0:02:09.240000'), ('0:00:01', '0:00:05.360000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:08.260000', '0:00:12.960000'), ('0:00:00.360000', '0:00:05.060000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_85</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2056451612903226</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F#:7', 'B:7', 'E:7', 'A', 'A'], ['A', 'F#:7', 'B:7', 'E:7', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:7', 'Ab', 'Ab'], ['Ab', 'F:7', 'Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(21.612539, 29.751133), (20.544421, 28.741065)]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(1.97, 5.91), (19.73, 23.23)]</t>
+          <t>[('0:01:36.740000', '0:01:48.820000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:01:26.660000', '0:01:36.120000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2125</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.45</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(54.18, 61.46)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(3.129454, 5.172811)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:15.027029', '0:00:21.737596')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_78</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06310750036268678</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F', 'C:7', 'F', 'Bb:7', 'F'], ['F:7', 'Bb:7', 'Bb:7', 'F', 'A:min7']]</t>
-        </is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb', 'Eb:7', 'Bb'], ['Bb:7', 'Eb:7', 'Eb:7', 'Bb', 'D:min7']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(11.21, 16.62), (4.22, 8.52)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(49.56, 61.63), (28.07, 39.14)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:00.220000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:00.240000', '0:00:13.680000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2015810276679842</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(46.56, 49.08)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(32.233898, 36.959159)]</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:27.600000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:7/A', 'A#:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(34.24, 39.86), (0.58, 8.96)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(38.06, 41.08), (262.92, 266.9)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:02.020000', '0:01:11.860000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4357142857142857</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(50.0, 56.61)]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(6.7, 11.86)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:16.341609', '0:00:23.354036')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1414473684210526</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'E']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'G']]</t>
+          <t>[['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(2.676666, 13.717755)]</t>
+          <t>[['C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(31.24882, 38.911405)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
+          <t>[('0:00:12.094553', '0:00:24.840113')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:09.060000', '0:00:14.300000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj'], ['C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(21.68, 32.36), (76.56, 80.8), (79.04, 86.54), (80.8, 91.18)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(53.5, 61.32), (58.12, 62.72), (68.64, 77.38), (6.84, 12.46)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:01.820000', '0:00:20.520000'), ('0:00:55.140000', '0:01:15.900000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5079365079365079</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(63.04, 65.24)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(5.8, 15.9)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_257</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07745098039215687</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'E']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(1.187152, 7.043615)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(12.405827, 17.850907)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:00.220000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2150537634408602</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C', 'C/7', 'C/6'], ['D:min7', 'D:min7/4', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D', 'D/5', 'D'], ['G:maj6/5', 'G:maj6/2', 'D']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(69.901, 77.903), (21.36, 31.417)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(90.564195, 93.10678), (88.938798, 91.376893)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_136</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_53</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A/3', 'E:7', 'A'], ['A', 'E', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(79.04, 86.54), (2.5, 26.2)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(58.557, 62.834), (4.605, 13.84)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:00.860000', '0:00:25.020000'), ('0:01:01.240000', '0:01:24.100000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:01.820000', '0:00:20.520000'), ('0:00:55.140000', '0:01:15.900000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
